--- a/data/DataFromCongruenceAnalyses.xlsx
+++ b/data/DataFromCongruenceAnalyses.xlsx
@@ -19,6 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2835,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3022,6 +3026,11 @@
           <t>SHCO</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3136,6 +3145,9 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3250,6 +3262,9 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3364,6 +3379,9 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3478,6 +3496,9 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3592,6 +3613,9 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3706,6 +3730,9 @@
       <c r="AJ7">
         <v>0</v>
       </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3820,6 +3847,9 @@
       <c r="AJ8">
         <v>0</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3934,6 +3964,9 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4048,6 +4081,9 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4162,6 +4198,9 @@
       <c r="AJ11">
         <v>0</v>
       </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4276,6 +4315,9 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4390,6 +4432,9 @@
       <c r="AJ13">
         <v>3</v>
       </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4504,6 +4549,9 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4618,6 +4666,9 @@
       <c r="AJ15">
         <v>0</v>
       </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4731,6 +4782,9 @@
       </c>
       <c r="AJ16">
         <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +4794,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4927,6 +4981,11 @@
           <t>SHCO</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5041,6 +5100,9 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5155,6 +5217,9 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5269,6 +5334,9 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5383,6 +5451,9 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5497,6 +5568,9 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5611,6 +5685,9 @@
       <c r="AJ7">
         <v>0</v>
       </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5725,6 +5802,9 @@
       <c r="AJ8">
         <v>0</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5839,6 +5919,9 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5953,6 +6036,9 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6067,6 +6153,9 @@
       <c r="AJ11">
         <v>0</v>
       </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6181,6 +6270,9 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6295,6 +6387,9 @@
       <c r="AJ13">
         <v>3</v>
       </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6409,6 +6504,9 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6523,6 +6621,9 @@
       <c r="AJ15">
         <v>0</v>
       </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6636,6 +6737,9 @@
       </c>
       <c r="AJ16">
         <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6650,6 +6754,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6674,7 +6781,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Visit</t>
+          <t>ANCH</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -6684,52 +6791,52 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>GRHE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LBHE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SNPI</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SPTH</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TRMO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>HOWR</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>LAGU</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MAFR</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPTH</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ZEND</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>GRHE</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>TRMO</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ANCH</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LBHE</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>SNPI</t>
+          <t>CAGR</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -6739,12 +6846,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>CAGR</t>
+          <t>COGA</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>COGA</t>
+          <t>CGDO</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -6754,62 +6861,62 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>CGDO</t>
+          <t>BBWD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>BBWD</t>
+          <t>BWVI</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>BWVI</t>
+          <t>BWHA</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>BWHA</t>
+          <t>MACU</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>MACU</t>
+          <t>BFGR</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>BFGR</t>
+          <t>GBHE</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>GBHE</t>
+          <t>GFLY</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>GFLY</t>
+          <t>CAMA</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>CAMA</t>
+          <t>BEKI</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>BEKI</t>
+          <t>BARS</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>BARS</t>
+          <t>LANB</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>LANB</t>
+          <t>SPSA</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
@@ -6824,7 +6931,7 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>SPSA</t>
+          <t>EADO</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -6839,12 +6946,12 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>EADO</t>
+          <t>SHCO</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>SHCO</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -6864,31 +6971,29 @@
           <t>CN-T1-P13</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20-May-20</t>
-        </is>
+      <c r="D2" s="2">
+        <v>43889</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -6991,19 +7096,17 @@
           <t>CN-T1-P13</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22-Apr-20</t>
-        </is>
+      <c r="D3" s="2">
+        <v>43943</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7015,13 +7118,13 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -7118,16 +7221,14 @@
           <t>CN-T1-P13</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28-Feb-20</t>
-        </is>
+      <c r="D4" s="2">
+        <v>43971</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -7148,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -7157,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -7245,13 +7346,11 @@
           <t>CN-T1-P13</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22-Apr-20</t>
-        </is>
+      <c r="D5" s="2">
+        <v>43889</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -7266,16 +7365,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -7284,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -7372,13 +7471,11 @@
           <t>CN-T1-P13</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28-Feb-20</t>
-        </is>
+      <c r="D6" s="2">
+        <v>43943</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -7393,19 +7490,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -7414,10 +7511,10 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -7499,22 +7596,20 @@
           <t>CN-T2-P1</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22-Apr-20</t>
-        </is>
+      <c r="D7" s="2">
+        <v>43889</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -7529,22 +7624,22 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -7626,22 +7721,20 @@
           <t>CN-T2-P1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>28-Feb-20</t>
-        </is>
+      <c r="D8" s="2">
+        <v>43943</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -7656,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7668,13 +7761,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -7753,13 +7846,11 @@
           <t>CN-T2-P3</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20-May-20</t>
-        </is>
+      <c r="D9" s="2">
+        <v>43889</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -7771,13 +7862,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -7792,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -7804,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -7880,13 +7971,11 @@
           <t>CN-T2-P3</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22-Apr-20</t>
-        </is>
+      <c r="D10" s="2">
+        <v>43943</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -7928,13 +8017,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -8007,13 +8096,11 @@
           <t>CN-T2-P3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>28-Feb-20</t>
-        </is>
+      <c r="D11" s="2">
+        <v>43971</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -8025,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -8037,16 +8124,16 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -8058,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -8134,13 +8221,11 @@
           <t>LV-T1-P13</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D12" s="2">
+        <v>43951</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -8158,19 +8243,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -8179,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -8261,13 +8346,11 @@
           <t>LV-T1-P13</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D13" s="2">
+        <v>43982</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -8276,40 +8359,40 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -8388,13 +8471,11 @@
           <t>LV-T1-P13</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D14" s="2">
+        <v>43951</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -8406,19 +8487,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8427,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -8515,13 +8596,11 @@
           <t>LV-T1-P13</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D15" s="2">
+        <v>43982</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -8533,28 +8612,28 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -8642,13 +8721,11 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D16" s="2">
+        <v>43951</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -8660,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8675,22 +8752,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -8769,13 +8846,11 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D17" s="2">
+        <v>43982</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -8784,40 +8859,40 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -8896,13 +8971,11 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D18" s="2">
+        <v>43951</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -8920,13 +8993,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -9023,46 +9096,44 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D19" s="2">
+        <v>43982</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -9150,13 +9221,11 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D20" s="2">
+        <v>43951</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -9277,13 +9346,11 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D21" s="2">
+        <v>43982</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -9295,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -9316,25 +9383,25 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -9404,13 +9471,11 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D22" s="2">
+        <v>43951</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -9428,16 +9493,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -9531,13 +9596,11 @@
           <t>LV-T23-P13</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D23" s="2">
+        <v>43982</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -9564,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -9579,19 +9642,19 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -9658,19 +9721,17 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D24" s="2">
+        <v>43951</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -9685,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -9703,10 +9764,10 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -9718,13 +9779,13 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -9785,13 +9846,11 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D25" s="2">
+        <v>43982</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -9800,22 +9859,22 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -9824,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -9912,13 +9971,11 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D26" s="2">
+        <v>43951</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -9936,16 +9993,16 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -10039,13 +10096,11 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D27" s="2">
+        <v>43982</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -10102,13 +10157,13 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -10166,19 +10221,17 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D28" s="2">
+        <v>43951</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>11</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -10190,10 +10243,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -10202,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -10293,13 +10346,11 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D29" s="2">
+        <v>43982</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -10317,13 +10368,13 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -10338,19 +10389,19 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -10362,10 +10413,10 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -10420,13 +10471,11 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D30" s="2">
+        <v>43951</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -10453,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -10547,19 +10596,17 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D31" s="2">
+        <v>43982</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -10571,13 +10618,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -10586,13 +10633,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -10674,13 +10721,11 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D32" s="2">
+        <v>43951</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -10692,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -10707,22 +10752,22 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -10801,25 +10846,23 @@
           <t>LV-T456-P13</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D33" s="2">
+        <v>43982</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -10828,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -10840,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -10928,13 +10971,11 @@
           <t>LV-T6-P3</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D34" s="2">
+        <v>43951</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -11055,13 +11096,11 @@
           <t>LV-T6-P3</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D35" s="2">
+        <v>43982</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -11094,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -11127,10 +11166,10 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -11182,13 +11221,11 @@
           <t>LV-T7-P1</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D36" s="2">
+        <v>43951</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -11206,7 +11243,7 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -11218,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -11254,13 +11291,13 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -11309,25 +11346,23 @@
           <t>LV-T7-P1</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D37" s="2">
+        <v>43982</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -11336,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -11348,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -11387,10 +11422,10 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -11436,13 +11471,11 @@
           <t>LV-T7-P3</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>30-Apr-20</t>
-        </is>
+      <c r="D38" s="2">
+        <v>43951</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -11508,13 +11541,13 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -11563,13 +11596,11 @@
           <t>LV-T7-P3</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>31-May-20</t>
-        </is>
+      <c r="D39" s="2">
+        <v>43982</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -11635,19 +11666,19 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB39">
         <v>2</v>
       </c>
       <c r="AC39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -11690,10 +11721,8 @@
           <t>MH-T1-P1</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>15-Feb-20</t>
-        </is>
+      <c r="D40" s="2">
+        <v>43876</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -11723,19 +11752,19 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -11774,10 +11803,10 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG40">
         <v>0</v>
@@ -11817,16 +11846,14 @@
           <t>MH-T12-P3</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D41" s="2">
+        <v>43876</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -11841,28 +11868,28 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -11880,13 +11907,13 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -11904,13 +11931,13 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -11944,16 +11971,14 @@
           <t>MH-T12-P3</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>15-Feb-20</t>
-        </is>
+      <c r="D42" s="2">
+        <v>43955</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -11968,28 +11993,28 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
         <v>3</v>
       </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -12004,13 +12029,13 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -12034,13 +12059,13 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
         <v>0</v>
@@ -12071,16 +12096,14 @@
           <t>MH-T12-P3</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D43" s="2">
+        <v>43876</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -12089,22 +12112,22 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -12113,10 +12136,10 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -12137,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -12164,16 +12187,16 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -12198,19 +12221,17 @@
           <t>MH-T12-P3</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>15-Feb-20</t>
-        </is>
+      <c r="D44" s="2">
+        <v>43955</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -12219,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -12240,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -12261,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -12291,19 +12312,19 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI44">
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -12325,13 +12346,11 @@
           <t>WH-T1-P13</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D45" s="2">
+        <v>43955</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -12340,88 +12359,88 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>14</v>
-      </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
         <v>3</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
       </c>
       <c r="AJ45">
         <v>0</v>
@@ -12433,7 +12452,7 @@
         <v>3</v>
       </c>
       <c r="AM45">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -12452,22 +12471,20 @@
           <t>WH-T1-P13</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D46" s="2">
+        <v>43955</v>
       </c>
       <c r="E46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -12476,13 +12493,13 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -12548,7 +12565,7 @@
         <v>2</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -12557,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -12579,13 +12596,11 @@
           <t>WH-T2-P13</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D47" s="2">
+        <v>43955</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -12597,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -12618,13 +12633,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>2</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -12706,19 +12721,17 @@
           <t>WH-T2-P13</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D48" s="2">
+        <v>43955</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -12730,13 +12743,13 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -12766,10 +12779,10 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -12802,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -12811,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -12833,25 +12846,23 @@
           <t>WH-T3-P13</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D49" s="2">
+        <v>43955</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -12860,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -12872,13 +12883,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -12929,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
         <v>0</v>
@@ -12938,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -12960,22 +12971,20 @@
           <t>WH-T3-P13</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>31-Mar-20</t>
-        </is>
+      <c r="D50" s="2">
+        <v>43921</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -12984,19 +12993,19 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -13023,10 +13032,10 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -13087,13 +13096,11 @@
           <t>WH-T4-P13</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>04-May-20</t>
-        </is>
+      <c r="D51" s="2">
+        <v>43955</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -13102,10 +13109,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -13123,10 +13130,10 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -13147,10 +13154,10 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -13183,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ51">
         <v>0</v>
@@ -13192,10 +13199,10 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -13214,22 +13221,20 @@
           <t>WH-T4-P13</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>31-Mar-20</t>
-        </is>
+      <c r="D52" s="2">
+        <v>43921</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -13238,19 +13243,19 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -13286,10 +13291,10 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC52">
         <v>0</v>

--- a/data/DataFromCongruenceAnalyses.xlsx
+++ b/data/DataFromCongruenceAnalyses.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Plants - Independent" sheetId="1" r:id="rId1"/>
-    <sheet name="Plants - SiteID" sheetId="2" r:id="rId2"/>
+    <sheet name="Plants - Independent (Mean)" sheetId="1" r:id="rId1"/>
+    <sheet name="Plants - SiteID (Mean)" sheetId="2" r:id="rId2"/>
     <sheet name="Birds - Mean by Independent" sheetId="3" r:id="rId3"/>
     <sheet name="Birds - Sum by Independent" sheetId="4" r:id="rId4"/>
     <sheet name="Birds - Sum by Date &amp; Indepen" sheetId="5" r:id="rId5"/>

--- a/data/DataFromCongruenceAnalyses.xlsx
+++ b/data/DataFromCongruenceAnalyses.xlsx
@@ -434,31 +434,31 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.03142</v>
+        <v>0.3142</v>
       </c>
       <c r="D2">
-        <v>0.08836875</v>
+        <v>0.44184375</v>
       </c>
       <c r="E2">
-        <v>0.14139</v>
+        <v>1.4139</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="K2">
-        <v>0.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.28278</v>
+        <v>1.4139</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.23565</v>
+        <v>0.39275</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,31 +551,31 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.03142</v>
+        <v>0.3142</v>
       </c>
       <c r="D5">
-        <v>0.2238675</v>
+        <v>1.1193375</v>
       </c>
       <c r="E5">
-        <v>0.42417</v>
+        <v>4.2417</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -590,31 +590,31 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.20423</v>
+        <v>1.02115</v>
       </c>
       <c r="D6">
-        <v>0.04123875</v>
+        <v>0.274925</v>
       </c>
       <c r="E6">
-        <v>0.083459375</v>
+        <v>1.6691875</v>
       </c>
       <c r="F6">
-        <v>1.225</v>
+        <v>6.125</v>
       </c>
       <c r="G6">
-        <v>0.4</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H6">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>4.05</v>
+        <v>20.25</v>
       </c>
       <c r="J6">
-        <v>1.15</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -629,31 +629,31 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.069124</v>
+        <v>0.5760333333333334</v>
       </c>
       <c r="D7">
-        <v>0.3401215</v>
+        <v>2.125759375</v>
       </c>
       <c r="E7">
-        <v>0.131964</v>
+        <v>1.0997</v>
       </c>
       <c r="F7">
-        <v>0.5600000000000001</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G7">
-        <v>0.6</v>
+        <v>3.75</v>
       </c>
       <c r="H7">
-        <v>0.26</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>2.12</v>
+        <v>13.25</v>
       </c>
       <c r="K7">
-        <v>2.08</v>
+        <v>17.33333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -668,31 +668,31 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.20423</v>
+        <v>0.510575</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.56556</v>
+        <v>1.4139</v>
       </c>
       <c r="F8">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>27.5</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="9">
@@ -710,28 +710,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.56556</v>
+        <v>2.8278</v>
       </c>
       <c r="E9">
-        <v>0.14139</v>
+        <v>0.70695</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H9">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07854999999999999</v>
+        <v>0.39275</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -788,28 +788,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1720245</v>
+        <v>0.215030625</v>
       </c>
       <c r="E11">
-        <v>0.0981875</v>
+        <v>0.4909375</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.02</v>
+        <v>5.025</v>
       </c>
       <c r="H11">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
-        <v>0.8400000000000001</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12">
@@ -824,31 +824,31 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.1861635</v>
+        <v>0.2659478571428571</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.196375</v>
+        <v>0.39275</v>
       </c>
       <c r="F12">
-        <v>1.235</v>
+        <v>2.47</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.38</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="13">
@@ -866,28 +866,28 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.25096725</v>
+        <v>0.6274181249999999</v>
       </c>
       <c r="E13">
-        <v>0.5993364999999999</v>
+        <v>1.49834125</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.55</v>
+        <v>3.875</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="K13">
-        <v>2.58</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="14">
@@ -902,31 +902,31 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.0196375</v>
+        <v>0.196375</v>
       </c>
       <c r="D14">
-        <v>0.29338425</v>
+        <v>0.5867684999999999</v>
       </c>
       <c r="E14">
-        <v>0.1296075</v>
+        <v>0.6480375</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="H14">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>4.21</v>
+        <v>8.42</v>
       </c>
       <c r="K14">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -944,28 +944,28 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.31616375</v>
+        <v>1.053879166666667</v>
       </c>
       <c r="E15">
-        <v>0.05694874999999999</v>
+        <v>0.28474375</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H15">
-        <v>0.59</v>
+        <v>2.95</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.65</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -983,28 +983,28 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3778255</v>
+        <v>0.755651</v>
       </c>
       <c r="E16">
-        <v>0.08051375</v>
+        <v>0.40256875</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="H16">
-        <v>0.26</v>
+        <v>1.3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.06</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1089,31 +1089,31 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.06284000000000001</v>
+        <v>0.3142</v>
       </c>
       <c r="D2">
-        <v>0.0589125</v>
+        <v>0.2945625</v>
       </c>
       <c r="E2">
-        <v>0.28278</v>
+        <v>1.4139</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>1.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.25136</v>
+        <v>1.2568</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.117825</v>
+        <v>0.589125</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.28278</v>
+        <v>1.4139</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.06284000000000001</v>
+        <v>0.3142</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.23565</v>
+        <v>0.39275</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1326,28 +1326,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.32991</v>
+        <v>1.64955</v>
       </c>
       <c r="E8">
-        <v>0.84834</v>
+        <v>4.2417</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1365,28 +1365,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.23565</v>
+        <v>1.17825</v>
       </c>
       <c r="E9">
-        <v>0.4948649999999999</v>
+        <v>1.2371625</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.4</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>5.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1401,28 +1401,28 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.06284000000000001</v>
+        <v>0.3142</v>
       </c>
       <c r="D10">
-        <v>0.117825</v>
+        <v>0.589125</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.37704</v>
+        <v>1.8852</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.34562</v>
+        <v>0.86405</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.800000000000001</v>
+        <v>24.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.06284000000000001</v>
+        <v>0.3142</v>
       </c>
       <c r="D13">
-        <v>0.04712999999999999</v>
+        <v>0.23565</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.2</v>
+        <v>26</v>
       </c>
       <c r="J13">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1557,31 +1557,31 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.25136</v>
+        <v>1.2568</v>
       </c>
       <c r="D14">
-        <v>0.0589125</v>
+        <v>0.2945625</v>
       </c>
       <c r="E14">
-        <v>0.3338375</v>
+        <v>1.6691875</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.06284000000000001</v>
+        <v>0.3142</v>
       </c>
       <c r="D15">
-        <v>0.0196375</v>
+        <v>0.0981875</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1635,28 +1635,28 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.12568</v>
+        <v>0.6284000000000001</v>
       </c>
       <c r="D16">
-        <v>0.0589125</v>
+        <v>0.2945625</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.42417</v>
+        <v>2.12085</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1716,28 +1716,28 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04712999999999999</v>
+        <v>0.23565</v>
       </c>
       <c r="E18">
-        <v>0.21994</v>
+        <v>0.5498499999999999</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>8.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="19">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.28278</v>
+        <v>0.70695</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1791,31 +1791,31 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.06284000000000001</v>
+        <v>0.3142</v>
       </c>
       <c r="D20">
-        <v>0.28278</v>
+        <v>1.4139</v>
       </c>
       <c r="E20">
-        <v>0.3770399999999999</v>
+        <v>1.8852</v>
       </c>
       <c r="F20">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.65982</v>
+        <v>3.2991</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.28278</v>
+        <v>0.70695</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.9</v>
+        <v>2.25</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="23">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.9936574999999999</v>
+        <v>2.48414375</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1950,28 +1950,28 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07854999999999999</v>
+        <v>0.39275</v>
       </c>
       <c r="E24">
-        <v>0.4712999999999999</v>
+        <v>2.3565</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.20423</v>
+        <v>0.510575</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.56556</v>
+        <v>1.4139</v>
       </c>
       <c r="F25">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="I25">
-        <v>11</v>
+        <v>27.5</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="26">
@@ -2028,28 +2028,28 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.56556</v>
+        <v>2.8278</v>
       </c>
       <c r="E26">
-        <v>0.14139</v>
+        <v>0.70695</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>3.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -2067,28 +2067,28 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.12568</v>
+        <v>0.6284000000000001</v>
       </c>
       <c r="E27">
-        <v>0.23565</v>
+        <v>1.17825</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H27">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>4.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.07854999999999999</v>
+        <v>0.39275</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2145,28 +2145,28 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.1720245</v>
+        <v>0.215030625</v>
       </c>
       <c r="E29">
-        <v>0.0981875</v>
+        <v>0.4909375</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>4.02</v>
+        <v>5.025</v>
       </c>
       <c r="H29">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="K29">
-        <v>0.8400000000000001</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="30">
@@ -2181,31 +2181,31 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.152387</v>
+        <v>0.2539783333333334</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.183807</v>
+        <v>0.306345</v>
       </c>
       <c r="F30">
-        <v>2.6</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2.2</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I30">
-        <v>3.86</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>2.956</v>
+        <v>4.926666666666667</v>
       </c>
     </row>
     <row r="31">
@@ -2220,31 +2220,31 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.0683385</v>
+        <v>0.1138975</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.058127</v>
+        <v>0.1453175</v>
       </c>
       <c r="F31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1.7</v>
+        <v>4.25</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2.54</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="32">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.0447735</v>
+        <v>0.11193375</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.227795</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.1625985</v>
+        <v>0.40649625</v>
       </c>
       <c r="F33">
-        <v>2.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.36</v>
+        <v>0.9</v>
       </c>
       <c r="I33">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="34">
@@ -2337,31 +2337,31 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.3039885</v>
+        <v>0.379985625</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.3346229999999999</v>
+        <v>0.557705</v>
       </c>
       <c r="F34">
-        <v>2.27</v>
+        <v>2.8375</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.7</v>
+        <v>1.75</v>
       </c>
       <c r="I34">
-        <v>3.5</v>
+        <v>4.375</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2.22</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="35">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.2081575</v>
+        <v>0.52039375</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.039275</v>
+        <v>0.196375</v>
       </c>
       <c r="D36">
-        <v>0.2961335</v>
+        <v>0.4935558333333333</v>
       </c>
       <c r="E36">
-        <v>0.259215</v>
+        <v>0.6480375</v>
       </c>
       <c r="F36">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="I36">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="J36">
-        <v>4.82</v>
+        <v>8.033333333333333</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2457,28 +2457,28 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.293777</v>
+        <v>0.7344425</v>
       </c>
       <c r="E37">
-        <v>1.198673</v>
+        <v>1.49834125</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="H37">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="K37">
-        <v>5.16</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="38">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.290635</v>
+        <v>0.7265874999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.64411</v>
+        <v>1.610275</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.65</v>
+        <v>1.625</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2571,31 +2571,31 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.039275</v>
+        <v>0.196375</v>
       </c>
       <c r="D40">
-        <v>0.2961335</v>
+        <v>0.4935558333333333</v>
       </c>
       <c r="E40">
-        <v>0.259215</v>
+        <v>0.6480375</v>
       </c>
       <c r="F40">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="I40">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>4.82</v>
+        <v>8.033333333333333</v>
       </c>
       <c r="K40">
-        <v>3.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.39275</v>
+        <v>1.96375</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2652,28 +2652,28 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.025136</v>
+        <v>0.06284000000000001</v>
       </c>
       <c r="E42">
-        <v>0.5294270000000001</v>
+        <v>0.8823783333333334</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H42">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1.72</v>
+        <v>4.3</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="43">
@@ -2691,28 +2691,28 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.2395775</v>
+        <v>0.59894375</v>
       </c>
       <c r="E43">
-        <v>0.1138975</v>
+        <v>0.28474375</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H43">
-        <v>1.18</v>
+        <v>2.95</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6.1</v>
+        <v>15.25</v>
       </c>
       <c r="K43">
-        <v>4.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.6299710000000001</v>
+        <v>1.049951666666667</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.84</v>
+        <v>1.4</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>4.32</v>
+        <v>7.2</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2766,31 +2766,31 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.103686</v>
+        <v>0.259215</v>
       </c>
       <c r="D45">
-        <v>0.0981875</v>
+        <v>0.4909375</v>
       </c>
       <c r="E45">
-        <v>0.3142</v>
+        <v>1.571</v>
       </c>
       <c r="F45">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="G45">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I45">
-        <v>1.64</v>
+        <v>4.1</v>
       </c>
       <c r="J45">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2808,28 +2808,28 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.12568</v>
+        <v>0.3142</v>
       </c>
       <c r="E46">
-        <v>0.1610275</v>
+        <v>0.40256875</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.86</v>
+        <v>2.15</v>
       </c>
       <c r="H46">
-        <v>0.52</v>
+        <v>1.3</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
